--- a/medicine/Hématologie/Complexe_immun/Complexe_immun.xlsx
+++ b/medicine/Hématologie/Complexe_immun/Complexe_immun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un complexe immun (ou complexe antigène-anticorps) résulte de la combinaison d'un épitope (ou déterminant antigénique) immunogène avec un anticorps dirigé spécifiquement contre cet épitope. Cette réaction est la première étape de l'immunité humorale. Après cette réaction, le complexe peut être ingéré par des phagocytes ou transformé par des protéases.
 Il existe des cas pathologiques où les complexes immuns peuvent causer des maladies par eux-mêmes, lorsqu'ils se déposent dans des organes, par exemple dans certaines formes de vascularites. Il s'agit d'une forme d'hypersensibilité de type III dans la classification de Gell et Coombs.
@@ -512,7 +524,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de l'intrusion d'un agent infectieux dans l'organisme, des cellules immunitaires, les plasmocytes formés par les lymphocyte B, sécrètent des anticorps en réponse à l'infection. Les différents anticorps se diffusent alors dans l’organisme à la recherche de l'agent infectieux. Lorsqu'un anticorps spécifique à l'antigène rencontre celui-ci, il se fixe sur ses récepteurs membranaires. Une fois cette fixation effectuée, le complexe immun est formé.
 </t>
@@ -543,7 +557,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe immun est un des mécanismes de défense du système immunitaire. On le qualifie de mécanisme inné : il fait partie de la réponse immunitaire primaire. En effet, lors d’une infection, il y a d’abord une réponse immunitaire primaire que l’on qualifie d'innée. Cette première barrière est assurée par les monocytes et phagocytes. Le complexe immun, quant à lui, facilite ces mécanismes par sa spécificité à un seul antigène. Une fois que l’antigène a été reconnu par son anticorps grâce à ses chaînes légères spécifique, il va y avoir mise en marche du complexe immun : l’association anticorps-antigène va se fixer à un phagocyte. Ce phagocyte aura alors la capacité de digérer le couple anticorps-antigène et de l’éliminer. Ce processus s’appelle la phagocytose et s’effectue en quatre grandes étapes : 
 La phase d’attraction : c’est le moment où une fois formé, le complexe immun va se rapprocher de la cellule phagocytaire par chimiotactisme.
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dysfonctionnements du complexe immun
-Les complexes immuns peuvent causer des maladies par eux-mêmes, en particulier les complexes immuns que l’on qualifie de circulant. Naturellement on constate l'apparition de complexes immuns circulants due à des réactions immunitaires. Ce n'est que l'amplification de ce phénomène normal qui aboutit à certaines pathologies. En effet, physiologiquement les complexes immuns circulants interceptent les compléments qui correspondent à des variétés d'enzymes qui participent aux mécanismes immunitaires de l'organisme contre les antigènes. Dès cet instant le complexe antigène anticorps c'est-à-dire l'agrégation des deux, après avoir circulé à l'intérieur du sang, est éliminé grâce à l'intervention des composants contenus dans les organes lymphoïdes (système réticulohistiocytaire) c'est-à-dire les cellules possédant la capacité d'éliminer les déchets dans le sang. 
+          <t>Dysfonctionnements du complexe immun</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les complexes immuns peuvent causer des maladies par eux-mêmes, en particulier les complexes immuns que l’on qualifie de circulant. Naturellement on constate l'apparition de complexes immuns circulants due à des réactions immunitaires. Ce n'est que l'amplification de ce phénomène normal qui aboutit à certaines pathologies. En effet, physiologiquement les complexes immuns circulants interceptent les compléments qui correspondent à des variétés d'enzymes qui participent aux mécanismes immunitaires de l'organisme contre les antigènes. Dès cet instant le complexe antigène anticorps c'est-à-dire l'agrégation des deux, après avoir circulé à l'intérieur du sang, est éliminé grâce à l'intervention des composants contenus dans les organes lymphoïdes (système réticulohistiocytaire) c'est-à-dire les cellules possédant la capacité d'éliminer les déchets dans le sang. 
 Cependant en réalité le phénomène est un peu différent et le complexe immun peut se retrouver dans trois situations différentes c'est-à-dire évoluer de manière différente dans l’organisme ce qui peut avoir des conséquences variables. 
 Voici les trois cas possibles : 
 Soit l'antigène et l'anticorps se neutralisent respectivement dans ce cas là tout se passe normalement cela n’entraîne donc aucune complication.
@@ -616,7 +637,9 @@
           <t>Liste non exhaustive de pathologies liées au dysfonctionnement du complexe immun</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glomérulonéphrite aiguë
